--- a/tests/testData/files/blogmap.xlsx
+++ b/tests/testData/files/blogmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/pickles2/px2-sitemapexcel/tests/testData/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569FD30F-C2A0-374E-B6B7-38F7702D0EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B068ECD8-95F6-4648-B82A-84FF86147286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="66">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.3.0-alpha.1</t>
   </si>
@@ -158,13 +158,75 @@
   </si>
   <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>article keyword 00</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>article summary 00</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>article keyword 01</t>
+  </si>
+  <si>
+    <t>article keyword 02</t>
+  </si>
+  <si>
+    <t>article keyword 03</t>
+  </si>
+  <si>
+    <t>article keyword 04</t>
+  </si>
+  <si>
+    <t>article keyword 05</t>
+  </si>
+  <si>
+    <t>article keyword 06</t>
+  </si>
+  <si>
+    <t>article keyword 07</t>
+  </si>
+  <si>
+    <t>article keyword 08</t>
+  </si>
+  <si>
+    <t>article keyword 09</t>
+  </si>
+  <si>
+    <t>article summary 01</t>
+  </si>
+  <si>
+    <t>article summary 02</t>
+  </si>
+  <si>
+    <t>article summary 03</t>
+  </si>
+  <si>
+    <t>article summary 04</t>
+  </si>
+  <si>
+    <t>article summary 05</t>
+  </si>
+  <si>
+    <t>article summary 06</t>
+  </si>
+  <si>
+    <t>article summary 07</t>
+  </si>
+  <si>
+    <t>article summary 08</t>
+  </si>
+  <si>
+    <t>article summary 09</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -192,6 +254,13 @@
       <sz val="6"/>
       <name val="Ryo Gothic PlusN L"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -254,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -262,6 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -572,7 +642,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -655,8 +725,12 @@
       <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="6" t="s">
@@ -671,8 +745,12 @@
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="6" t="s">
@@ -687,8 +765,12 @@
       <c r="D11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="6" t="s">
@@ -703,8 +785,12 @@
       <c r="D12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="6" t="s">
@@ -719,8 +805,12 @@
       <c r="D13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6" t="s">
@@ -735,8 +825,12 @@
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="6" t="s">
@@ -751,8 +845,12 @@
       <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="6" t="s">
@@ -767,8 +865,12 @@
       <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6" t="s">
@@ -783,8 +885,12 @@
       <c r="D17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
@@ -799,8 +905,12 @@
       <c r="D18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="5" customHeight="1">
       <c r="A21" s="3" t="s">
